--- a/assets/generated/model3/ProductProductionSequence.xlsx
+++ b/assets/generated/model3/ProductProductionSequence.xlsx
@@ -340,42 +340,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
         <v>0</v>
       </c>
     </row>

--- a/assets/generated/model3/ProductProductionSequence.xlsx
+++ b/assets/generated/model3/ProductProductionSequence.xlsx
@@ -340,33 +340,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
         <v>0</v>
       </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
     </row>
